--- a/etc/mvw-test-data.xlsx
+++ b/etc/mvw-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\METools\method-eval-tools\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0336CB4F-E12C-4E00-94FC-B6216D0CFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DDC948-57D1-491D-BE74-8983CB9B635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="420" windowWidth="22275" windowHeight="19110" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="795" windowWidth="22275" windowHeight="19110" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp 1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="235">
   <si>
     <t>Reference Method</t>
   </si>
@@ -940,6 +940,9 @@
   </si>
   <si>
     <t>EP05_A1</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -6302,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D70B62E-C183-4D29-A9A9-387646CEF91A}">
   <dimension ref="A1:Y167"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8218,8 +8221,14 @@
       <c r="O32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8251,7 +8260,7 @@
         <v>3.7627484960896122E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8302,8 +8311,15 @@
         <f>POWER(M34*J34,2)/G34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>20</v>
+      </c>
+      <c r="Q34">
+        <f>(P34-1)/($G$28-3)</f>
+        <v>0.24675324675324675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8354,8 +8370,15 @@
         <f t="shared" ref="O35:O36" si="18">POWER(M35*J35,2)/G35</f>
         <v>2.051693698158585E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <f>(P35-1)/($G$28-3)</f>
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8406,8 +8429,15 @@
         <f t="shared" si="18"/>
         <v>1.4916638367065273E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <f>(P36-1)/($G$28-3)</f>
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8421,7 +8451,7 @@
         <v>102.18390876234</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8442,7 +8472,7 @@
         <v>0.19966203281116524</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8463,7 +8493,7 @@
         <v>3.5433575348651123E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8484,7 +8514,7 @@
         <v>56.34826032839667</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8498,7 +8528,7 @@
         <v>95.755952301741203</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8512,7 +8542,7 @@
         <v>106.64351196067599</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8526,7 +8556,7 @@
         <v>98.852209551491597</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8540,7 +8570,7 @@
         <v>99.493433384858406</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8554,7 +8584,7 @@
         <v>98.634645392121001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8568,7 +8598,7 @@
         <v>99.262354950237295</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8582,7 +8612,7 @@
         <v>99.053648233066596</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10769,7 +10799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C36204-48D9-454C-9744-8C8F9C4F181A}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/etc/mvw-test-data.xlsx
+++ b/etc/mvw-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\METools\method-eval-tools\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DDC948-57D1-491D-BE74-8983CB9B635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862A4CD-B1F4-4E78-A89D-9AB1D207F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="795" windowWidth="22275" windowHeight="19110" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14805" yWindow="1485" windowWidth="22035" windowHeight="19110" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Level1" sheetId="12" r:id="rId6"/>
     <sheet name="Layout" sheetId="8" r:id="rId7"/>
     <sheet name="Raw" sheetId="14" r:id="rId8"/>
+    <sheet name="10x3x2" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="__ai3_dataset_1753400505_range_1070343600" localSheetId="3" hidden="1">'20x2x2'!$A$1:$D$81</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="238">
   <si>
     <t>Reference Method</t>
   </si>
@@ -943,6 +944,15 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Run 3</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1854,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="5">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -6305,7 +6315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D70B62E-C183-4D29-A9A9-387646CEF91A}">
   <dimension ref="A1:Y167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -10800,7 +10810,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11942,4 +11952,690 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B281BF-6701-4925-B6EF-E2A7A0CD8970}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>